--- a/backend/venv/prac01.xlsx
+++ b/backend/venv/prac01.xlsx
@@ -495,750 +495,750 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>그린 북</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>9.60</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>가버나움</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>9.59</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>베일리 어게인</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>9.53</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>주전장</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>9.52</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>아일라</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>9.48</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>원더</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>9.45</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>당갈</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>9.44</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>쇼생크 탈출</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>9.43</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>보헤미안 랩소디</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>9.42</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>터미네이터 2</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>9.41</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>덕구</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>9.40</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>월-E</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>9.40</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>나 홀로 집에</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="0" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>알라딘</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>매트릭스</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>인생은 아름다워</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>라이언 일병 구하기</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>빽 투 더 퓨쳐</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="0" t="inlineStr">
         <is>
           <t>헬프</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="0" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="0" t="inlineStr">
         <is>
           <t>포레스트 검프</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="0" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="0" t="inlineStr">
         <is>
           <t>사운드 오브 뮤직</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="0" t="inlineStr">
         <is>
           <t>글래디에이터</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="0" t="inlineStr">
         <is>
           <t>9.38</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="0" t="inlineStr">
         <is>
           <t>살인의 추억</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>9.38</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="0" t="inlineStr">
         <is>
           <t>어벤져스: 엔드게임</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="0" t="inlineStr">
         <is>
           <t>9.38</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="0" t="inlineStr">
         <is>
           <t>토이 스토리 3</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>9.38</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="0" t="inlineStr">
         <is>
           <t>센과 치히로의 행방불명</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>9.38</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="0" t="inlineStr">
         <is>
           <t>위대한 쇼맨</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="0" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="0" t="inlineStr">
         <is>
           <t>클래식</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="0" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="0" t="inlineStr">
         <is>
           <t>헌터 킬러</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="0" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="0" t="inlineStr">
         <is>
           <t>죽은 시인의 사회</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="0" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="0" t="inlineStr">
         <is>
           <t>레옹</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="0" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="0" t="inlineStr">
         <is>
           <t>아이 캔 스피크</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="0" t="inlineStr">
         <is>
           <t>반지의 제왕: 왕의 귀환</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="0" t="inlineStr">
         <is>
           <t>9.36</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="0" t="inlineStr">
         <is>
           <t>동주</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="0" t="inlineStr">
         <is>
           <t>9.36</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="0" t="inlineStr">
         <is>
           <t>굿바이 마이 프랜드</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="0" t="inlineStr">
         <is>
           <t>9.35</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="0" t="inlineStr">
         <is>
           <t>캐스트 어웨이</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="0" t="inlineStr">
         <is>
           <t>9.35</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="0" t="inlineStr">
         <is>
           <t>여인의 향기</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="0" t="inlineStr">
         <is>
           <t>9.35</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="0" t="inlineStr">
         <is>
           <t>주토피아</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="0" t="inlineStr">
         <is>
           <t>9.35</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="0" t="inlineStr">
         <is>
           <t>히든 피겨스</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="0" t="inlineStr">
         <is>
           <t>9.35</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="0" t="inlineStr">
         <is>
           <t>세 얼간이</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="0" t="inlineStr">
         <is>
           <t>9.34</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="0" t="inlineStr">
         <is>
           <t>클레멘타인</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="0" t="inlineStr">
         <is>
           <t>9.34</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="0" t="inlineStr">
         <is>
           <t>지금, 만나러 갑니다</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="0" t="inlineStr">
         <is>
           <t>9.34</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="0" t="inlineStr">
         <is>
           <t>집으로...</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="0" t="inlineStr">
         <is>
           <t>9.34</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="0" t="inlineStr">
         <is>
           <t>타이타닉</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="0" t="inlineStr">
         <is>
           <t>9.34</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="0" t="inlineStr">
         <is>
           <t>쉰들러 리스트</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="0" t="inlineStr">
         <is>
           <t>9.34</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="0" t="inlineStr">
         <is>
           <t>서유기 2 - 선리기연</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="0" t="inlineStr">
         <is>
           <t>9.33</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="0" t="inlineStr">
         <is>
           <t>언터처블: 1%의 우정</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="0" t="inlineStr">
         <is>
           <t>9.33</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="0" t="inlineStr">
         <is>
           <t>모노노케 히메</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="0" t="inlineStr">
         <is>
           <t>9.33</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="0" t="inlineStr">
         <is>
           <t>에이리언 2</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="0" t="inlineStr">
         <is>
           <t>9.33</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="0" t="inlineStr">
         <is>
           <t>패왕별희</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="0" t="inlineStr">
         <is>
           <t>9.33</t>
         </is>
